--- a/Daily_Wise_Topics_Discussions.xlsx
+++ b/Daily_Wise_Topics_Discussions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBAC547-CF26-42F4-A17A-68F25E413B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5437E38-2508-4084-8EDA-A101C554970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="daily_wise_topics_discussions" sheetId="1" r:id="rId1"/>
+    <sheet name="topics_wise_assignments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
   <si>
     <t>Sl. No</t>
   </si>
@@ -257,6 +258,155 @@
 14. create the image overlay
 15. implemented the media objects &amp; its alignments
 16. create the basic navigations</t>
+  </si>
+  <si>
+    <t>Assignments</t>
+  </si>
+  <si>
+    <t>Create the Sample Html Structure with Proper Indentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the Content of any Company, Service, Product with Html Formatting Elements, </t>
+  </si>
+  <si>
+    <t>Apply the Lists and Links to the Content</t>
+  </si>
+  <si>
+    <t>Display the images with all attributes and even give the link</t>
+  </si>
+  <si>
+    <t>Create the table(s) for services, products, person examples with links, images in side it</t>
+  </si>
+  <si>
+    <t>Create the form with all inputs where user can able apply for job</t>
+  </si>
+  <si>
+    <t>Display the media objects of video and audio files</t>
+  </si>
+  <si>
+    <t>Apply the styles: 
+	1. Inline
+	2. Embedded
+	3. External - to Html content., create Services Page, Products Page, Register Form</t>
+  </si>
+  <si>
+    <t>Apply the Colors to Content in 3 different ways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create the Code to Apply the Custom Styles to Content: 
+	1. Class
+	2. Id  </t>
+  </si>
+  <si>
+    <t>Create a Service, Product, with group of pages a Website with Html &amp; Css in Responsive?</t>
+  </si>
+  <si>
+    <t>Showcase the Gallery with Products: Headings, Descriptions, View &amp; AddToCart Buttons?</t>
+  </si>
+  <si>
+    <t>Research &amp; Create some sample examples of Selectors and Applying the Properties:  (space), &gt;, +, ~</t>
+  </si>
+  <si>
+    <t>Create the WebPage with Form, Apply the styles and Attributes Styling: [], [=], [~=], [*=]</t>
+  </si>
+  <si>
+    <t>Find out some Psuedo Class's, Apply those to Content with Sample Examples</t>
+  </si>
+  <si>
+    <t>Create a Project or Website - eCommerce Application, OOT Applications, Inventory System Admin Dashboards, Social Networking Applications</t>
+  </si>
+  <si>
+    <t>Create the 3 different layouts: 1. Fixed, 2. Fluid, &amp; 3. Breakpoints</t>
+  </si>
+  <si>
+    <t>Create the sample layout - Resume or Portfolio</t>
+  </si>
+  <si>
+    <t>Display the Data in Table - Employee &amp; Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display the Lists &amp; List Groups - create the list groups ex., services, products, </t>
+  </si>
+  <si>
+    <t>show case the list of items with list groups ex., services, products, by applying the classes of icons</t>
+  </si>
+  <si>
+    <t>apply the checkboxes &amp; radio buttons to list groups</t>
+  </si>
+  <si>
+    <t>create the forms: horizontal, vertical, inline, with sample login</t>
+  </si>
+  <si>
+    <t>implement the registration form with all fields in horizontal form</t>
+  </si>
+  <si>
+    <t>create the button &amp; its styles</t>
+  </si>
+  <si>
+    <t>create the dropdown buttons</t>
+  </si>
+  <si>
+    <t>create the input groups</t>
+  </si>
+  <si>
+    <t>create the combination of buttons, dropdowns with forms &amp; input groups</t>
+  </si>
+  <si>
+    <t>display the images with different effects</t>
+  </si>
+  <si>
+    <t>display the images and content alignments</t>
+  </si>
+  <si>
+    <t>implement the concept of cards with header, footer, body, and display the content</t>
+  </si>
+  <si>
+    <t>display the videos in different ratios</t>
+  </si>
+  <si>
+    <t>create the image overlay</t>
+  </si>
+  <si>
+    <t>create the blog page with group of articles info., which includes the headings, sub headings, images, paragraphs, links,</t>
+  </si>
+  <si>
+    <t>implement the concept of navigations &amp; its different layouts</t>
+  </si>
+  <si>
+    <t>create the responsive navigation with icons effects &amp; dropdowns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a single page template showing the any company information with background images, headings, listings, footer content, etc., </t>
+  </si>
+  <si>
+    <t>`6</t>
+  </si>
+  <si>
+    <t>`7</t>
+  </si>
+  <si>
+    <t>`13</t>
+  </si>
+  <si>
+    <t>`14</t>
+  </si>
+  <si>
+    <t>`20</t>
+  </si>
+  <si>
+    <t>`21</t>
+  </si>
+  <si>
+    <t>`27</t>
+  </si>
+  <si>
+    <t>`28</t>
+  </si>
+  <si>
+    <t>`34</t>
+  </si>
+  <si>
+    <t>`35</t>
   </si>
 </sst>
 </file>
@@ -326,13 +476,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E9" sqref="E5:E9"/>
     </sheetView>
   </sheetViews>
@@ -1569,4 +1726,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C704B454-EBDA-4023-8795-F4D250081426}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="2" width="57.90625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="100" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="80" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="80" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Daily_Wise_Topics_Discussions.xlsx
+++ b/Daily_Wise_Topics_Discussions.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5437E38-2508-4084-8EDA-A101C554970D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844AB13-1CE7-4662-8C3D-73965FF286AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daily_wise_topics_discussions" sheetId="1" r:id="rId1"/>
-    <sheet name="topics_wise_assignments" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Sl. No</t>
   </si>
@@ -260,153 +259,15 @@
 16. create the basic navigations</t>
   </si>
   <si>
-    <t>Assignments</t>
-  </si>
-  <si>
-    <t>Create the Sample Html Structure with Proper Indentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display the Content of any Company, Service, Product with Html Formatting Elements, </t>
-  </si>
-  <si>
-    <t>Apply the Lists and Links to the Content</t>
-  </si>
-  <si>
-    <t>Display the images with all attributes and even give the link</t>
-  </si>
-  <si>
-    <t>Create the table(s) for services, products, person examples with links, images in side it</t>
-  </si>
-  <si>
-    <t>Create the form with all inputs where user can able apply for job</t>
-  </si>
-  <si>
-    <t>Display the media objects of video and audio files</t>
-  </si>
-  <si>
-    <t>Apply the styles: 
-	1. Inline
-	2. Embedded
-	3. External - to Html content., create Services Page, Products Page, Register Form</t>
-  </si>
-  <si>
-    <t>Apply the Colors to Content in 3 different ways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create the Code to Apply the Custom Styles to Content: 
-	1. Class
-	2. Id  </t>
-  </si>
-  <si>
-    <t>Create a Service, Product, with group of pages a Website with Html &amp; Css in Responsive?</t>
-  </si>
-  <si>
-    <t>Showcase the Gallery with Products: Headings, Descriptions, View &amp; AddToCart Buttons?</t>
-  </si>
-  <si>
-    <t>Research &amp; Create some sample examples of Selectors and Applying the Properties:  (space), &gt;, +, ~</t>
-  </si>
-  <si>
-    <t>Create the WebPage with Form, Apply the styles and Attributes Styling: [], [=], [~=], [*=]</t>
-  </si>
-  <si>
-    <t>Find out some Psuedo Class's, Apply those to Content with Sample Examples</t>
-  </si>
-  <si>
-    <t>Create a Project or Website - eCommerce Application, OOT Applications, Inventory System Admin Dashboards, Social Networking Applications</t>
-  </si>
-  <si>
-    <t>Create the 3 different layouts: 1. Fixed, 2. Fluid, &amp; 3. Breakpoints</t>
-  </si>
-  <si>
-    <t>Create the sample layout - Resume or Portfolio</t>
-  </si>
-  <si>
-    <t>Display the Data in Table - Employee &amp; Projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display the Lists &amp; List Groups - create the list groups ex., services, products, </t>
-  </si>
-  <si>
-    <t>show case the list of items with list groups ex., services, products, by applying the classes of icons</t>
-  </si>
-  <si>
-    <t>apply the checkboxes &amp; radio buttons to list groups</t>
-  </si>
-  <si>
-    <t>create the forms: horizontal, vertical, inline, with sample login</t>
-  </si>
-  <si>
-    <t>implement the registration form with all fields in horizontal form</t>
-  </si>
-  <si>
-    <t>create the button &amp; its styles</t>
-  </si>
-  <si>
-    <t>create the dropdown buttons</t>
-  </si>
-  <si>
-    <t>create the input groups</t>
-  </si>
-  <si>
-    <t>create the combination of buttons, dropdowns with forms &amp; input groups</t>
-  </si>
-  <si>
-    <t>display the images with different effects</t>
-  </si>
-  <si>
-    <t>display the images and content alignments</t>
-  </si>
-  <si>
-    <t>implement the concept of cards with header, footer, body, and display the content</t>
-  </si>
-  <si>
-    <t>display the videos in different ratios</t>
-  </si>
-  <si>
-    <t>create the image overlay</t>
-  </si>
-  <si>
-    <t>create the blog page with group of articles info., which includes the headings, sub headings, images, paragraphs, links,</t>
-  </si>
-  <si>
-    <t>implement the concept of navigations &amp; its different layouts</t>
-  </si>
-  <si>
-    <t>create the responsive navigation with icons effects &amp; dropdowns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create a single page template showing the any company information with background images, headings, listings, footer content, etc., </t>
-  </si>
-  <si>
-    <t>`6</t>
-  </si>
-  <si>
-    <t>`7</t>
-  </si>
-  <si>
-    <t>`13</t>
-  </si>
-  <si>
-    <t>`14</t>
-  </si>
-  <si>
-    <t>`20</t>
-  </si>
-  <si>
-    <t>`21</t>
-  </si>
-  <si>
-    <t>`27</t>
-  </si>
-  <si>
-    <t>`28</t>
-  </si>
-  <si>
-    <t>`34</t>
-  </si>
-  <si>
-    <t>`35</t>
+    <t>bootstrap
+1. created the navigations
+2. responsive navigations with form, icons &amp; dropdowns
+3. creating the hover effect dropdown navigations
+4. creating the accordions
+5. creating the misc., components like., pagination, progressbars, etc., 
+6. creating the boiler plate with html,
+7. creating the 24 column grid system
+8. creating the shopping cart view layout.,</t>
   </si>
 </sst>
 </file>
@@ -476,20 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -774,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E9" sqref="E5:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -897,12 +751,14 @@
       <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1714,337 +1570,11 @@
       <c r="D61" s="3"/>
       <c r="E61" s="2">
         <f>SUM(E2:E59)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" s="2">
         <f>SUM(F2:F59)</f>
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C704B454-EBDA-4023-8795-F4D250081426}">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="8.7265625" style="7"/>
-    <col min="2" max="2" width="57.90625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="100" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="40" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
